--- a/assets/grades.xlsx
+++ b/assets/grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/Smith/teaching/SDS-CSC235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BD4466-E79E-E640-9E6E-CBBAE6D27A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AB4AE0-89E9-D949-B32A-D095BA5EBA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30040" yWindow="640" windowWidth="31240" windowHeight="18640" xr2:uid="{4582E4CD-5465-DD4C-9E97-41DC8F65BFAB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23000" xr2:uid="{4582E4CD-5465-DD4C-9E97-41DC8F65BFAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -278,8 +278,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.3531986076847694E-2"/>
-                  <c:y val="7.7492496452297527E-2"/>
+                  <c:x val="-7.0765260355113838E-2"/>
+                  <c:y val="2.6746268656716414E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -376,13 +376,13 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -414,6 +414,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -421,7 +422,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1244,7 +1244,7 @@
   <dimension ref="B4:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1273,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
@@ -1281,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
@@ -1289,7 +1289,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
